--- a/mat/ferries_wheels.xlsx
+++ b/mat/ferries_wheels.xlsx
@@ -1,133 +1,960 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="28695" windowHeight="13155" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="9">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
+    <cellStyle name="Comma" xfId="46" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="303030"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:CL90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R20" activeCellId="0" sqref="R20"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col min="1" max="1025" width="11.5166666666667"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:90">
       <c r="A1" s="1" t="b">
         <v>0</v>
       </c>
@@ -399,7 +1226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:90">
       <c r="A2" s="1" t="b">
         <v>0</v>
       </c>
@@ -671,7 +1498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:90">
       <c r="A3" s="1" t="b">
         <v>0</v>
       </c>
@@ -943,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:90">
       <c r="A4" s="1" t="b">
         <v>0</v>
       </c>
@@ -1215,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:90">
       <c r="A5" s="1" t="b">
         <v>0</v>
       </c>
@@ -1487,7 +2314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:90">
       <c r="A6" s="1" t="b">
         <v>0</v>
       </c>
@@ -1759,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:90">
       <c r="A7" s="1" t="b">
         <v>0</v>
       </c>
@@ -2031,7 +2858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:90">
       <c r="A8" s="1" t="b">
         <v>0</v>
       </c>
@@ -2303,7 +3130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:90">
       <c r="A9" s="1" t="b">
         <v>0</v>
       </c>
@@ -2575,7 +3402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:90">
       <c r="A10" s="1" t="b">
         <v>0</v>
       </c>
@@ -2847,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:90">
       <c r="A11" s="1" t="b">
         <v>0</v>
       </c>
@@ -3119,7 +3946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:90">
       <c r="A12" s="1" t="b">
         <v>0</v>
       </c>
@@ -3391,7 +4218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:90">
       <c r="A13" s="1" t="b">
         <v>0</v>
       </c>
@@ -3663,7 +4490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:90">
       <c r="A14" s="1" t="b">
         <v>0</v>
       </c>
@@ -3935,7 +4762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:90">
       <c r="A15" s="1" t="b">
         <v>0</v>
       </c>
@@ -4207,7 +5034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:90">
       <c r="A16" s="1" t="b">
         <v>0</v>
       </c>
@@ -4479,7 +5306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:90">
       <c r="A17" s="1" t="b">
         <v>0</v>
       </c>
@@ -4751,7 +5578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:90">
       <c r="A18" s="1" t="b">
         <v>0</v>
       </c>
@@ -5023,7 +5850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:90">
       <c r="A19" s="1" t="b">
         <v>0</v>
       </c>
@@ -5295,7 +6122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:90">
       <c r="A20" s="1" t="b">
         <v>0</v>
       </c>
@@ -5567,7 +6394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:90">
       <c r="A21" s="1" t="b">
         <v>0</v>
       </c>
@@ -5839,7 +6666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:90">
       <c r="A22" s="1" t="b">
         <v>0</v>
       </c>
@@ -6111,7 +6938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:90">
       <c r="A23" s="1" t="b">
         <v>0</v>
       </c>
@@ -6383,7 +7210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:90">
       <c r="A24" s="1" t="b">
         <v>0</v>
       </c>
@@ -6655,7 +7482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:90">
       <c r="A25" s="1" t="b">
         <v>0</v>
       </c>
@@ -6927,7 +7754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:90">
       <c r="A26" s="1" t="b">
         <v>0</v>
       </c>
@@ -7199,7 +8026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:90">
       <c r="A27" s="1" t="b">
         <v>0</v>
       </c>
@@ -7471,7 +8298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:90">
       <c r="A28" s="1" t="b">
         <v>0</v>
       </c>
@@ -7743,7 +8570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:90">
       <c r="A29" s="1" t="b">
         <v>0</v>
       </c>
@@ -8015,7 +8842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:90">
       <c r="A30" s="1" t="b">
         <v>0</v>
       </c>
@@ -8287,7 +9114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:90">
       <c r="A31" s="1" t="b">
         <v>0</v>
       </c>
@@ -8559,7 +9386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:90">
       <c r="A32" s="1" t="b">
         <v>0</v>
       </c>
@@ -8831,7 +9658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:90">
       <c r="A33" s="1" t="b">
         <v>0</v>
       </c>
@@ -9103,7 +9930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:90">
       <c r="A34" s="1" t="b">
         <v>0</v>
       </c>
@@ -9375,7 +10202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:90">
       <c r="A35" s="1" t="b">
         <v>0</v>
       </c>
@@ -9647,7 +10474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:90">
       <c r="A36" s="1" t="b">
         <v>0</v>
       </c>
@@ -9919,7 +10746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:90">
       <c r="A37" s="1" t="b">
         <v>0</v>
       </c>
@@ -10191,7 +11018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:90">
       <c r="A38" s="1" t="b">
         <v>0</v>
       </c>
@@ -10463,7 +11290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:90">
       <c r="A39" s="1" t="b">
         <v>0</v>
       </c>
@@ -10735,7 +11562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:90">
       <c r="A40" s="1" t="b">
         <v>0</v>
       </c>
@@ -11007,7 +11834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:90">
       <c r="A41" s="1" t="b">
         <v>0</v>
       </c>
@@ -11279,7 +12106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:90">
       <c r="A42" s="1" t="b">
         <v>0</v>
       </c>
@@ -11551,7 +12378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:90">
       <c r="A43" s="1" t="b">
         <v>0</v>
       </c>
@@ -11823,7 +12650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:90">
       <c r="A44" s="1" t="b">
         <v>0</v>
       </c>
@@ -12095,7 +12922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:90">
       <c r="A45" s="1" t="b">
         <v>0</v>
       </c>
@@ -12367,7 +13194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:90">
       <c r="A46" s="1" t="b">
         <v>0</v>
       </c>
@@ -12639,7 +13466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:90">
       <c r="A47" s="1" t="b">
         <v>0</v>
       </c>
@@ -12911,7 +13738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:90">
       <c r="A48" s="1" t="b">
         <v>0</v>
       </c>
@@ -13183,7 +14010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:90">
       <c r="A49" s="1" t="b">
         <v>0</v>
       </c>
@@ -13455,7 +14282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:90">
       <c r="A50" s="1" t="b">
         <v>0</v>
       </c>
@@ -13727,7 +14554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:90">
       <c r="A51" s="1" t="b">
         <v>0</v>
       </c>
@@ -13999,7 +14826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:90">
       <c r="A52" s="1" t="b">
         <v>0</v>
       </c>
@@ -14271,7 +15098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:90">
       <c r="A53" s="1" t="b">
         <v>0</v>
       </c>
@@ -14543,7 +15370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:90">
       <c r="A54" s="1" t="b">
         <v>0</v>
       </c>
@@ -14815,7 +15642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:90">
       <c r="A55" s="1" t="b">
         <v>0</v>
       </c>
@@ -15087,7 +15914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:90">
       <c r="A56" s="1" t="b">
         <v>0</v>
       </c>
@@ -15359,7 +16186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:90">
       <c r="A57" s="1" t="b">
         <v>0</v>
       </c>
@@ -15631,7 +16458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:90">
       <c r="A58" s="1" t="b">
         <v>0</v>
       </c>
@@ -15903,7 +16730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:90">
       <c r="A59" s="1" t="b">
         <v>0</v>
       </c>
@@ -16175,7 +17002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:90">
       <c r="A60" s="1" t="b">
         <v>0</v>
       </c>
@@ -16447,7 +17274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:90">
       <c r="A61" s="1" t="b">
         <v>0</v>
       </c>
@@ -16719,7 +17546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:90">
       <c r="A62" s="1" t="b">
         <v>0</v>
       </c>
@@ -16991,7 +17818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:90">
       <c r="A63" s="1" t="b">
         <v>0</v>
       </c>
@@ -17263,7 +18090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:90">
       <c r="A64" s="1" t="b">
         <v>0</v>
       </c>
@@ -17535,7 +18362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:90">
       <c r="A65" s="1" t="b">
         <v>0</v>
       </c>
@@ -17807,7 +18634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:90">
       <c r="A66" s="1" t="b">
         <v>0</v>
       </c>
@@ -18079,7 +18906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:90">
       <c r="A67" s="1" t="b">
         <v>0</v>
       </c>
@@ -18351,7 +19178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:90">
       <c r="A68" s="1" t="b">
         <v>0</v>
       </c>
@@ -18623,7 +19450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:90">
       <c r="A69" s="1" t="b">
         <v>0</v>
       </c>
@@ -18895,7 +19722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:90">
       <c r="A70" s="1" t="b">
         <v>0</v>
       </c>
@@ -19167,7 +19994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:90">
       <c r="A71" s="1" t="b">
         <v>0</v>
       </c>
@@ -19439,7 +20266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:90">
       <c r="A72" s="1" t="b">
         <v>0</v>
       </c>
@@ -19711,7 +20538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:90">
       <c r="A73" s="1" t="b">
         <v>0</v>
       </c>
@@ -19983,7 +20810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:90">
       <c r="A74" s="1" t="b">
         <v>0</v>
       </c>
@@ -20255,7 +21082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:90">
       <c r="A75" s="1" t="b">
         <v>0</v>
       </c>
@@ -20527,7 +21354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:90">
       <c r="A76" s="1" t="b">
         <v>0</v>
       </c>
@@ -20799,7 +21626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:90">
       <c r="A77" s="1" t="b">
         <v>0</v>
       </c>
@@ -21071,7 +21898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:90">
       <c r="A78" s="1" t="b">
         <v>0</v>
       </c>
@@ -21343,7 +22170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:90">
       <c r="A79" s="1" t="b">
         <v>0</v>
       </c>
@@ -21615,7 +22442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:90">
       <c r="A80" s="1" t="b">
         <v>0</v>
       </c>
@@ -21887,7 +22714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:90">
       <c r="A81" s="1" t="b">
         <v>0</v>
       </c>
@@ -22159,7 +22986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:90">
       <c r="A82" s="1" t="b">
         <v>0</v>
       </c>
@@ -22431,7 +23258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:90">
       <c r="A83" s="1" t="b">
         <v>0</v>
       </c>
@@ -22703,7 +23530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:90">
       <c r="A84" s="1" t="b">
         <v>0</v>
       </c>
@@ -22975,7 +23802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:90">
       <c r="A85" s="1" t="b">
         <v>0</v>
       </c>
@@ -23247,7 +24074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:90">
       <c r="A86" s="1" t="b">
         <v>0</v>
       </c>
@@ -23519,7 +24346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:90">
       <c r="A87" s="1" t="b">
         <v>0</v>
       </c>
@@ -23791,7 +24618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:90">
       <c r="A88" s="1" t="b">
         <v>0</v>
       </c>
@@ -24063,7 +24890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:90">
       <c r="A89" s="1" t="b">
         <v>0</v>
       </c>
@@ -24335,7 +25162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:90">
       <c r="A90" s="1" t="b">
         <v>0</v>
       </c>
@@ -24608,10 +25435,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.02430555555556" bottom="1.02430555555556" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>

--- a/mat/ferries_wheels.xlsx
+++ b/mat/ferries_wheels.xlsx
@@ -17,11 +17,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -30,47 +30,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -91,30 +53,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,14 +63,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,8 +76,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,7 +132,35 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,17 +168,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -187,90 +187,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -286,7 +202,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,25 +322,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,43 +358,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,6 +384,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -396,23 +422,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -433,6 +444,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -446,177 +481,142 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -946,7 +946,7 @@
   <dimension ref="A1:CL90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1354,19 +1354,19 @@
         <v>0</v>
       </c>
       <c r="AQ2" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR2" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS2" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU2" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV2" s="1" t="b">
         <v>0</v>
@@ -1629,16 +1629,16 @@
         <v>0</v>
       </c>
       <c r="AR3" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AT3" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU3" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV3" s="1" t="b">
         <v>1</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="AM4" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN4" s="1" t="b">
         <v>1</v>
@@ -2155,10 +2155,10 @@
         <v>0</v>
       </c>
       <c r="AL5" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM5" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN5" s="1" t="b">
         <v>0</v>
@@ -2696,10 +2696,10 @@
         <v>0</v>
       </c>
       <c r="AK7" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" s="1" t="b">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8" s="1" t="b">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="BA8" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB8" s="1" t="b">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>1</v>
       </c>
       <c r="AK9" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9" s="1" t="b">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="AG10" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH10" s="1" t="b">
         <v>1</v>
@@ -3569,7 +3569,7 @@
         <v>1</v>
       </c>
       <c r="BD10" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE10" s="1" t="b">
         <v>0</v>
@@ -3778,10 +3778,10 @@
         <v>1</v>
       </c>
       <c r="AI11" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK11" s="1" t="b">
         <v>0</v>
@@ -3835,7 +3835,7 @@
         <v>1</v>
       </c>
       <c r="BB11" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC11" s="1" t="b">
         <v>1</v>
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD12" s="1" t="b">
         <v>1</v>
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="BE12" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF12" s="1" t="b">
         <v>1</v>
@@ -4298,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="AA13" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB13" s="1" t="b">
         <v>1</v>
@@ -4328,10 +4328,10 @@
         <v>0</v>
       </c>
       <c r="AK13" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13" s="1" t="b">
         <v>0</v>
@@ -4373,10 +4373,10 @@
         <v>0</v>
       </c>
       <c r="AZ13" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB13" s="1" t="b">
         <v>0</v>
@@ -4394,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="BG13" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH13" s="1" t="b">
         <v>1</v>
@@ -4403,7 +4403,7 @@
         <v>1</v>
       </c>
       <c r="BJ13" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK13" s="1" t="b">
         <v>0</v>
@@ -4600,10 +4600,10 @@
         <v>0</v>
       </c>
       <c r="AK14" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="1" t="b">
         <v>0</v>
@@ -4833,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="1" t="b">
         <v>1</v>
@@ -4842,7 +4842,7 @@
         <v>1</v>
       </c>
       <c r="AA15" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="1" t="b">
         <v>0</v>
@@ -4875,10 +4875,10 @@
         <v>0</v>
       </c>
       <c r="AL15" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM15" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN15" s="1" t="b">
         <v>0</v>
@@ -4917,7 +4917,7 @@
         <v>1</v>
       </c>
       <c r="AZ15" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA15" s="1" t="b">
         <v>0</v>
@@ -5102,13 +5102,13 @@
         <v>0</v>
       </c>
       <c r="W16" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16" s="1" t="b">
         <v>1</v>
       </c>
       <c r="Y16" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1" t="b">
         <v>0</v>
@@ -5150,10 +5150,10 @@
         <v>0</v>
       </c>
       <c r="AM16" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN16" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1" t="b">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>1</v>
       </c>
       <c r="BN16" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO16" s="1" t="b">
         <v>0</v>
@@ -5371,13 +5371,13 @@
         <v>0</v>
       </c>
       <c r="V17" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17" s="1" t="b">
         <v>1</v>
       </c>
       <c r="X17" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="1" t="b">
         <v>0</v>
@@ -5425,13 +5425,13 @@
         <v>0</v>
       </c>
       <c r="AN17" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO17" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AP17" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ17" s="1" t="b">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="AU17" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV17" s="1" t="b">
         <v>0</v>
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="AX17" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY17" s="1" t="b">
         <v>0</v>
@@ -5500,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="BM17" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN17" s="1" t="b">
         <v>1</v>
@@ -5640,13 +5640,13 @@
         <v>0</v>
       </c>
       <c r="U18" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="1" t="b">
         <v>1</v>
       </c>
       <c r="W18" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18" s="1" t="b">
         <v>0</v>
@@ -5703,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="AP18" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ18" s="1" t="b">
         <v>1</v>
@@ -5718,7 +5718,7 @@
         <v>1</v>
       </c>
       <c r="AU18" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV18" s="1" t="b">
         <v>1</v>
@@ -5775,7 +5775,7 @@
         <v>0</v>
       </c>
       <c r="BN18" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO18" s="1" t="b">
         <v>1</v>
@@ -5909,7 +5909,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" s="1" t="b">
         <v>1</v>
@@ -5921,7 +5921,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="1" t="b">
         <v>0</v>
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="BO19" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP19" s="1" t="b">
         <v>1</v>
@@ -6062,22 +6062,22 @@
         <v>0</v>
       </c>
       <c r="BS19" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT19" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU19" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV19" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW19" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY19" s="1" t="b">
         <v>0</v>
@@ -6154,7 +6154,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="1" t="b">
         <v>0</v>
@@ -6163,28 +6163,28 @@
         <v>1</v>
       </c>
       <c r="N20" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Q20" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" s="1" t="b">
         <v>0</v>
       </c>
       <c r="S20" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U20" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="1" t="b">
         <v>0</v>
@@ -6193,7 +6193,7 @@
         <v>0</v>
       </c>
       <c r="X20" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20" s="1" t="b">
         <v>0</v>
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="BO20" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP20" s="1" t="b">
         <v>0</v>
@@ -6349,10 +6349,10 @@
         <v>0</v>
       </c>
       <c r="BX20" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY20" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ20" s="1" t="b">
         <v>1</v>
@@ -6417,28 +6417,28 @@
         <v>0</v>
       </c>
       <c r="H21" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="1" t="b">
         <v>0</v>
       </c>
       <c r="N21" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" s="1" t="b">
         <v>0</v>
@@ -6453,7 +6453,7 @@
         <v>1</v>
       </c>
       <c r="T21" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1" t="b">
         <v>0</v>
@@ -6471,7 +6471,7 @@
         <v>0</v>
       </c>
       <c r="Z21" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="1" t="b">
         <v>0</v>
@@ -6588,22 +6588,22 @@
         <v>0</v>
       </c>
       <c r="BM21" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO21" s="1" t="b">
         <v>0</v>
       </c>
       <c r="BP21" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ21" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR21" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS21" s="1" t="b">
         <v>0</v>
@@ -6612,13 +6612,13 @@
         <v>0</v>
       </c>
       <c r="BU21" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV21" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW21" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX21" s="1" t="b">
         <v>0</v>
@@ -6633,7 +6633,7 @@
         <v>1</v>
       </c>
       <c r="CB21" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC21" s="1" t="b">
         <v>0</v>
@@ -6686,7 +6686,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="1" t="b">
         <v>0</v>
@@ -6695,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1" t="b">
         <v>0</v>
@@ -6713,22 +6713,22 @@
         <v>0</v>
       </c>
       <c r="P22" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" s="1" t="b">
         <v>0</v>
@@ -6740,13 +6740,13 @@
         <v>0</v>
       </c>
       <c r="Y22" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z22" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AA22" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="1" t="b">
         <v>0</v>
@@ -6860,13 +6860,13 @@
         <v>0</v>
       </c>
       <c r="BM22" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN22" s="1" t="b">
         <v>0</v>
       </c>
       <c r="BO22" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP22" s="1" t="b">
         <v>0</v>
@@ -6875,13 +6875,13 @@
         <v>0</v>
       </c>
       <c r="BR22" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS22" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT22" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU22" s="1" t="b">
         <v>0</v>
@@ -6905,13 +6905,13 @@
         <v>0</v>
       </c>
       <c r="CB22" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD22" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE22" s="1" t="b">
         <v>0</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="1" t="b">
         <v>0</v>
@@ -6964,7 +6964,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="1" t="b">
         <v>0</v>
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" s="1" t="b">
         <v>0</v>
@@ -7003,7 +7003,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" s="1" t="b">
         <v>0</v>
@@ -7018,7 +7018,7 @@
         <v>0</v>
       </c>
       <c r="AA23" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB23" s="1" t="b">
         <v>0</v>
@@ -7126,10 +7126,10 @@
         <v>0</v>
       </c>
       <c r="BK23" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL23" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM23" s="1" t="b">
         <v>0</v>
@@ -7138,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="BO23" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP23" s="1" t="b">
         <v>0</v>
@@ -7147,7 +7147,7 @@
         <v>0</v>
       </c>
       <c r="BR23" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS23" s="1" t="b">
         <v>0</v>
@@ -7180,13 +7180,13 @@
         <v>0</v>
       </c>
       <c r="CC23" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD23" s="1" t="b">
         <v>0</v>
       </c>
       <c r="CE23" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF23" s="1" t="b">
         <v>0</v>
@@ -7224,7 +7224,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="1" t="b">
         <v>0</v>
@@ -7233,7 +7233,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="1" t="b">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="1" t="b">
         <v>0</v>
@@ -7275,7 +7275,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" s="1" t="b">
         <v>0</v>
@@ -7296,7 +7296,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD24" s="1" t="b">
         <v>0</v>
@@ -7341,10 +7341,10 @@
         <v>0</v>
       </c>
       <c r="AR24" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS24" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1" t="b">
         <v>0</v>
@@ -7398,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="BK24" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL24" s="1" t="b">
         <v>0</v>
@@ -7407,7 +7407,7 @@
         <v>0</v>
       </c>
       <c r="BN24" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO24" s="1" t="b">
         <v>0</v>
@@ -7419,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="BR24" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS24" s="1" t="b">
         <v>0</v>
@@ -7458,10 +7458,10 @@
         <v>0</v>
       </c>
       <c r="CE24" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF24" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG24" s="1" t="b">
         <v>0</v>
@@ -7493,7 +7493,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1" t="b">
         <v>0</v>
@@ -7538,7 +7538,7 @@
         <v>0</v>
       </c>
       <c r="S25" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" s="1" t="b">
         <v>0</v>
@@ -7550,7 +7550,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="1" t="b">
         <v>0</v>
@@ -7565,7 +7565,7 @@
         <v>0</v>
       </c>
       <c r="AB25" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC25" s="1" t="b">
         <v>0</v>
@@ -7664,10 +7664,10 @@
         <v>0</v>
       </c>
       <c r="BI25" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ25" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK25" s="1" t="b">
         <v>0</v>
@@ -7679,7 +7679,7 @@
         <v>0</v>
       </c>
       <c r="BN25" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO25" s="1" t="b">
         <v>0</v>
@@ -7688,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="BQ25" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR25" s="1" t="b">
         <v>0</v>
@@ -7724,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="CC25" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD25" s="1" t="b">
         <v>0</v>
@@ -7733,7 +7733,7 @@
         <v>0</v>
       </c>
       <c r="CF25" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG25" s="1" t="b">
         <v>0</v>
@@ -7765,7 +7765,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1" t="b">
         <v>0</v>
@@ -7774,7 +7774,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1" t="b">
         <v>0</v>
@@ -7813,7 +7813,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26" s="1" t="b">
         <v>0</v>
@@ -7843,10 +7843,10 @@
         <v>0</v>
       </c>
       <c r="AD26" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE26" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF26" s="1" t="b">
         <v>0</v>
@@ -7960,7 +7960,7 @@
         <v>0</v>
       </c>
       <c r="BQ26" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR26" s="1" t="b">
         <v>0</v>
@@ -7999,7 +7999,7 @@
         <v>0</v>
       </c>
       <c r="CD26" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE26" s="1" t="b">
         <v>0</v>
@@ -8008,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="CG26" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH26" s="1" t="b">
         <v>0</v>
@@ -8037,7 +8037,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1" t="b">
         <v>0</v>
@@ -8085,7 +8085,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27" s="1" t="b">
         <v>0</v>
@@ -8094,7 +8094,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27" s="1" t="b">
         <v>0</v>
@@ -8202,10 +8202,10 @@
         <v>0</v>
       </c>
       <c r="BG27" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH27" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI27" s="1" t="b">
         <v>0</v>
@@ -8223,13 +8223,13 @@
         <v>0</v>
       </c>
       <c r="BN27" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO27" s="1" t="b">
         <v>0</v>
       </c>
       <c r="BP27" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ27" s="1" t="b">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>0</v>
       </c>
       <c r="CG27" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH27" s="1" t="b">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="1" t="b">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="1" t="b">
         <v>0</v>
@@ -8357,7 +8357,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28" s="1" t="b">
         <v>0</v>
@@ -8393,10 +8393,10 @@
         <v>0</v>
       </c>
       <c r="AF28" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG28" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH28" s="1" t="b">
         <v>0</v>
@@ -8474,7 +8474,7 @@
         <v>0</v>
       </c>
       <c r="BG28" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH28" s="1" t="b">
         <v>0</v>
@@ -8495,13 +8495,13 @@
         <v>0</v>
       </c>
       <c r="BN28" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO28" s="1" t="b">
         <v>0</v>
       </c>
       <c r="BP28" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ28" s="1" t="b">
         <v>0</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="CD28" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE28" s="1" t="b">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="CG28" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH28" s="1" t="b">
         <v>0</v>
@@ -8581,7 +8581,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="1" t="b">
         <v>0</v>
@@ -8629,7 +8629,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" s="1" t="b">
         <v>0</v>
@@ -8638,7 +8638,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X29" s="1" t="b">
         <v>0</v>
@@ -8740,7 +8740,7 @@
         <v>0</v>
       </c>
       <c r="BE29" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF29" s="1" t="b">
         <v>0</v>
@@ -8773,7 +8773,7 @@
         <v>0</v>
       </c>
       <c r="BP29" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ29" s="1" t="b">
         <v>0</v>
@@ -8812,7 +8812,7 @@
         <v>0</v>
       </c>
       <c r="CC29" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD29" s="1" t="b">
         <v>0</v>
@@ -8824,7 +8824,7 @@
         <v>0</v>
       </c>
       <c r="CG29" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH29" s="1" t="b">
         <v>0</v>
@@ -8853,7 +8853,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="1" t="b">
         <v>0</v>
@@ -8862,7 +8862,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="1" t="b">
         <v>0</v>
@@ -8901,7 +8901,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30" s="1" t="b">
         <v>0</v>
@@ -8910,7 +8910,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30" s="1" t="b">
         <v>0</v>
@@ -8940,13 +8940,13 @@
         <v>0</v>
       </c>
       <c r="AG30" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH30" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AI30" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ30" s="1" t="b">
         <v>0</v>
@@ -8973,10 +8973,10 @@
         <v>0</v>
       </c>
       <c r="AR30" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS30" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT30" s="1" t="b">
         <v>0</v>
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="BE30" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF30" s="1" t="b">
         <v>0</v>
@@ -9039,13 +9039,13 @@
         <v>0</v>
       </c>
       <c r="BN30" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO30" s="1" t="b">
         <v>0</v>
       </c>
       <c r="BP30" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ30" s="1" t="b">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="CC30" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD30" s="1" t="b">
         <v>0</v>
@@ -9096,7 +9096,7 @@
         <v>0</v>
       </c>
       <c r="CG30" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH30" s="1" t="b">
         <v>0</v>
@@ -9125,7 +9125,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="1" t="b">
         <v>0</v>
@@ -9137,7 +9137,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="1" t="b">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" s="1" t="b">
         <v>0</v>
@@ -9218,7 +9218,7 @@
         <v>0</v>
       </c>
       <c r="AI31" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ31" s="1" t="b">
         <v>0</v>
@@ -9278,10 +9278,10 @@
         <v>0</v>
       </c>
       <c r="BC31" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD31" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE31" s="1" t="b">
         <v>0</v>
@@ -9314,13 +9314,13 @@
         <v>0</v>
       </c>
       <c r="BO31" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP31" s="1" t="b">
         <v>0</v>
       </c>
       <c r="BQ31" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR31" s="1" t="b">
         <v>0</v>
@@ -9353,7 +9353,7 @@
         <v>0</v>
       </c>
       <c r="CB31" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC31" s="1" t="b">
         <v>0</v>
@@ -9365,7 +9365,7 @@
         <v>0</v>
       </c>
       <c r="CF31" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG31" s="1" t="b">
         <v>0</v>
@@ -9397,7 +9397,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="1" t="b">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" s="1" t="b">
         <v>0</v>
@@ -9442,7 +9442,7 @@
         <v>0</v>
       </c>
       <c r="S32" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" s="1" t="b">
         <v>0</v>
@@ -9451,7 +9451,7 @@
         <v>0</v>
       </c>
       <c r="V32" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W32" s="1" t="b">
         <v>0</v>
@@ -9496,7 +9496,7 @@
         <v>0</v>
       </c>
       <c r="AK32" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32" s="1" t="b">
         <v>0</v>
@@ -9550,7 +9550,7 @@
         <v>0</v>
       </c>
       <c r="BC32" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD32" s="1" t="b">
         <v>0</v>
@@ -9589,10 +9589,10 @@
         <v>0</v>
       </c>
       <c r="BP32" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ32" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR32" s="1" t="b">
         <v>0</v>
@@ -9622,7 +9622,7 @@
         <v>0</v>
       </c>
       <c r="CA32" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB32" s="1" t="b">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="CF32" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG32" s="1" t="b">
         <v>0</v>
@@ -9672,7 +9672,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="1" t="b">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" s="1" t="b">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>0</v>
       </c>
       <c r="S33" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" s="1" t="b">
         <v>0</v>
       </c>
       <c r="U33" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33" s="1" t="b">
         <v>0</v>
@@ -9768,7 +9768,7 @@
         <v>0</v>
       </c>
       <c r="AK33" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL33" s="1" t="b">
         <v>0</v>
@@ -9816,10 +9816,10 @@
         <v>0</v>
       </c>
       <c r="BA33" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB33" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC33" s="1" t="b">
         <v>0</v>
@@ -9864,7 +9864,7 @@
         <v>0</v>
       </c>
       <c r="BQ33" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR33" s="1" t="b">
         <v>1</v>
@@ -9891,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="BZ33" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA33" s="1" t="b">
         <v>0</v>
@@ -9906,7 +9906,7 @@
         <v>0</v>
       </c>
       <c r="CE33" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF33" s="1" t="b">
         <v>0</v>
@@ -9947,7 +9947,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="1" t="b">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="1" t="b">
         <v>0</v>
@@ -9983,13 +9983,13 @@
         <v>0</v>
       </c>
       <c r="R34" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34" s="1" t="b">
         <v>0</v>
       </c>
       <c r="T34" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34" s="1" t="b">
         <v>0</v>
@@ -10046,7 +10046,7 @@
         <v>0</v>
       </c>
       <c r="AM34" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN34" s="1" t="b">
         <v>0</v>
@@ -10088,7 +10088,7 @@
         <v>0</v>
       </c>
       <c r="BA34" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB34" s="1" t="b">
         <v>0</v>
@@ -10139,28 +10139,28 @@
         <v>0</v>
       </c>
       <c r="BR34" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS34" s="1" t="b">
         <v>1</v>
       </c>
       <c r="BT34" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU34" s="1" t="b">
         <v>0</v>
       </c>
       <c r="BV34" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW34" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX34" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY34" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ34" s="1" t="b">
         <v>0</v>
@@ -10175,10 +10175,10 @@
         <v>0</v>
       </c>
       <c r="CD34" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE34" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF34" s="1" t="b">
         <v>0</v>
@@ -10222,10 +10222,10 @@
         <v>0</v>
       </c>
       <c r="G35" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="1" t="b">
         <v>0</v>
@@ -10234,13 +10234,13 @@
         <v>0</v>
       </c>
       <c r="K35" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" s="1" t="b">
         <v>0</v>
@@ -10252,13 +10252,13 @@
         <v>1</v>
       </c>
       <c r="Q35" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T35" s="1" t="b">
         <v>0</v>
@@ -10315,7 +10315,7 @@
         <v>0</v>
       </c>
       <c r="AL35" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM35" s="1" t="b">
         <v>0</v>
@@ -10417,10 +10417,10 @@
         <v>0</v>
       </c>
       <c r="BT35" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU35" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV35" s="1" t="b">
         <v>0</v>
@@ -10429,7 +10429,7 @@
         <v>0</v>
       </c>
       <c r="BX35" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY35" s="1" t="b">
         <v>0</v>
@@ -10444,7 +10444,7 @@
         <v>0</v>
       </c>
       <c r="CC35" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD35" s="1" t="b">
         <v>0</v>
@@ -10500,13 +10500,13 @@
         <v>0</v>
       </c>
       <c r="I36" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="1" t="b">
         <v>0</v>
@@ -10524,7 +10524,7 @@
         <v>0</v>
       </c>
       <c r="Q36" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36" s="1" t="b">
         <v>0</v>
@@ -10593,10 +10593,10 @@
         <v>0</v>
       </c>
       <c r="AN36" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO36" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP36" s="1" t="b">
         <v>0</v>
@@ -10605,10 +10605,10 @@
         <v>0</v>
       </c>
       <c r="AR36" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS36" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT36" s="1" t="b">
         <v>0</v>
@@ -10692,28 +10692,28 @@
         <v>0</v>
       </c>
       <c r="BU36" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV36" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW36" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX36" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY36" s="1" t="b">
         <v>1</v>
       </c>
       <c r="BZ36" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA36" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB36" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC36" s="1" t="b">
         <v>0</v>
@@ -10781,13 +10781,13 @@
         <v>0</v>
       </c>
       <c r="L37" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N37" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" s="1" t="b">
         <v>0</v>
@@ -10877,13 +10877,13 @@
         <v>0</v>
       </c>
       <c r="AR37" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS37" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AT37" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU37" s="1" t="b">
         <v>0</v>
@@ -11053,13 +11053,13 @@
         <v>0</v>
       </c>
       <c r="L38" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" s="1" t="b">
         <v>0</v>
@@ -11143,10 +11143,10 @@
         <v>0</v>
       </c>
       <c r="AP38" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ38" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR38" s="1" t="b">
         <v>1</v>
@@ -11158,7 +11158,7 @@
         <v>1</v>
       </c>
       <c r="AU38" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV38" s="1" t="b">
         <v>0</v>
@@ -11245,7 +11245,7 @@
         <v>0</v>
       </c>
       <c r="BX38" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY38" s="1" t="b">
         <v>1</v>
@@ -11322,13 +11322,13 @@
         <v>0</v>
       </c>
       <c r="K39" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" s="1" t="b">
         <v>0</v>
@@ -11433,7 +11433,7 @@
         <v>1</v>
       </c>
       <c r="AV39" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW39" s="1" t="b">
         <v>0</v>
@@ -11597,19 +11597,19 @@
         <v>0</v>
       </c>
       <c r="L40" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P40" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="1" t="b">
         <v>0</v>
@@ -11621,7 +11621,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40" s="1" t="b">
         <v>0</v>
@@ -11630,7 +11630,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X40" s="1" t="b">
         <v>0</v>
@@ -11639,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="Z40" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA40" s="1" t="b">
         <v>0</v>
@@ -11648,7 +11648,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD40" s="1" t="b">
         <v>0</v>
@@ -11657,7 +11657,7 @@
         <v>0</v>
       </c>
       <c r="AF40" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG40" s="1" t="b">
         <v>0</v>
@@ -11666,7 +11666,7 @@
         <v>0</v>
       </c>
       <c r="AI40" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ40" s="1" t="b">
         <v>0</v>
@@ -11675,13 +11675,13 @@
         <v>0</v>
       </c>
       <c r="AL40" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AN40" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO40" s="1" t="b">
         <v>0</v>
@@ -11705,7 +11705,7 @@
         <v>1</v>
       </c>
       <c r="AV40" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW40" s="1" t="b">
         <v>0</v>
@@ -11717,7 +11717,7 @@
         <v>0</v>
       </c>
       <c r="AZ40" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA40" s="1" t="b">
         <v>0</v>
@@ -11726,7 +11726,7 @@
         <v>0</v>
       </c>
       <c r="BC40" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD40" s="1" t="b">
         <v>0</v>
@@ -11735,7 +11735,7 @@
         <v>0</v>
       </c>
       <c r="BF40" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG40" s="1" t="b">
         <v>0</v>
@@ -11744,7 +11744,7 @@
         <v>0</v>
       </c>
       <c r="BI40" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ40" s="1" t="b">
         <v>0</v>
@@ -11753,7 +11753,7 @@
         <v>0</v>
       </c>
       <c r="BL40" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM40" s="1" t="b">
         <v>0</v>
@@ -11762,7 +11762,7 @@
         <v>0</v>
       </c>
       <c r="BO40" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP40" s="1" t="b">
         <v>0</v>
@@ -11771,7 +11771,7 @@
         <v>0</v>
       </c>
       <c r="BR40" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS40" s="1" t="b">
         <v>0</v>
@@ -11780,7 +11780,7 @@
         <v>0</v>
       </c>
       <c r="BU40" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV40" s="1" t="b">
         <v>0</v>
@@ -11789,7 +11789,7 @@
         <v>0</v>
       </c>
       <c r="BX40" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY40" s="1" t="b">
         <v>1</v>
@@ -11866,7 +11866,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="1" t="b">
         <v>0</v>
@@ -11875,10 +11875,10 @@
         <v>1</v>
       </c>
       <c r="N41" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" s="1" t="b">
         <v>0</v>
@@ -11887,7 +11887,7 @@
         <v>0</v>
       </c>
       <c r="R41" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S41" s="1" t="b">
         <v>0</v>
@@ -11896,7 +11896,7 @@
         <v>0</v>
       </c>
       <c r="U41" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V41" s="1" t="b">
         <v>0</v>
@@ -11905,7 +11905,7 @@
         <v>0</v>
       </c>
       <c r="X41" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y41" s="1" t="b">
         <v>0</v>
@@ -11914,7 +11914,7 @@
         <v>0</v>
       </c>
       <c r="AA41" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB41" s="1" t="b">
         <v>0</v>
@@ -11923,7 +11923,7 @@
         <v>0</v>
       </c>
       <c r="AD41" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE41" s="1" t="b">
         <v>0</v>
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="AG41" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH41" s="1" t="b">
         <v>0</v>
@@ -11941,7 +11941,7 @@
         <v>0</v>
       </c>
       <c r="AJ41" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK41" s="1" t="b">
         <v>0</v>
@@ -11950,13 +11950,13 @@
         <v>0</v>
       </c>
       <c r="AM41" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN41" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AO41" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP41" s="1" t="b">
         <v>1</v>
@@ -11977,25 +11977,25 @@
         <v>1</v>
       </c>
       <c r="AV41" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW41" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AX41" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY41" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AZ41" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA41" s="1" t="b">
         <v>0</v>
       </c>
       <c r="BB41" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC41" s="1" t="b">
         <v>0</v>
@@ -12004,7 +12004,7 @@
         <v>0</v>
       </c>
       <c r="BE41" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF41" s="1" t="b">
         <v>0</v>
@@ -12016,7 +12016,7 @@
         <v>0</v>
       </c>
       <c r="BI41" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ41" s="1" t="b">
         <v>0</v>
@@ -12028,7 +12028,7 @@
         <v>0</v>
       </c>
       <c r="BM41" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN41" s="1" t="b">
         <v>0</v>
@@ -12040,7 +12040,7 @@
         <v>0</v>
       </c>
       <c r="BQ41" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR41" s="1" t="b">
         <v>0</v>
@@ -12049,7 +12049,7 @@
         <v>0</v>
       </c>
       <c r="BT41" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU41" s="1" t="b">
         <v>0</v>
@@ -12058,10 +12058,10 @@
         <v>0</v>
       </c>
       <c r="BW41" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX41" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY41" s="1" t="b">
         <v>1</v>
@@ -12141,13 +12141,13 @@
         <v>0</v>
       </c>
       <c r="L42" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" s="1" t="b">
         <v>0</v>
@@ -12231,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="AP42" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ42" s="1" t="b">
         <v>1</v>
@@ -12410,16 +12410,16 @@
         <v>0</v>
       </c>
       <c r="K43" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43" s="1" t="b">
         <v>0</v>
@@ -12503,7 +12503,7 @@
         <v>0</v>
       </c>
       <c r="AP43" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ43" s="1" t="b">
         <v>1</v>
@@ -12605,7 +12605,7 @@
         <v>0</v>
       </c>
       <c r="BX43" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY43" s="1" t="b">
         <v>1</v>
@@ -12685,13 +12685,13 @@
         <v>0</v>
       </c>
       <c r="L44" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N44" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44" s="1" t="b">
         <v>0</v>
@@ -12778,25 +12778,25 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR44" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AS44" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT44" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AU44" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV44" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AW44" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX44" s="1" t="b">
         <v>0</v>
@@ -12957,13 +12957,13 @@
         <v>0</v>
       </c>
       <c r="L45" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" s="1" t="b">
         <v>0</v>
       </c>
       <c r="N45" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O45" s="1" t="b">
         <v>0</v>
@@ -13044,10 +13044,10 @@
         <v>0</v>
       </c>
       <c r="AO45" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP45" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ45" s="1" t="b">
         <v>1</v>
@@ -13059,19 +13059,19 @@
         <v>0</v>
       </c>
       <c r="AT45" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU45" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AV45" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW45" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX45" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY45" s="1" t="b">
         <v>0</v>
@@ -13152,7 +13152,7 @@
         <v>1</v>
       </c>
       <c r="BY45" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ45" s="1" t="b">
         <v>0</v>
@@ -13229,28 +13229,28 @@
         <v>0</v>
       </c>
       <c r="L46" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N46" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R46" s="1" t="b">
         <v>0</v>
       </c>
       <c r="S46" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T46" s="1" t="b">
         <v>0</v>
@@ -13313,13 +13313,13 @@
         <v>0</v>
       </c>
       <c r="AN46" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO46" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AP46" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ46" s="1" t="b">
         <v>1</v>
@@ -13334,10 +13334,10 @@
         <v>0</v>
       </c>
       <c r="AU46" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV46" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW46" s="1" t="b">
         <v>0</v>
@@ -13409,16 +13409,16 @@
         <v>0</v>
       </c>
       <c r="BT46" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU46" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV46" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW46" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX46" s="1" t="b">
         <v>1</v>
@@ -13498,22 +13498,22 @@
         <v>0</v>
       </c>
       <c r="K47" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" s="1" t="b">
         <v>1</v>
       </c>
       <c r="M47" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" s="1" t="b">
         <v>0</v>
@@ -13522,10 +13522,10 @@
         <v>0</v>
       </c>
       <c r="S47" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T47" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U47" s="1" t="b">
         <v>0</v>
@@ -13582,7 +13582,7 @@
         <v>0</v>
       </c>
       <c r="AM47" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN47" s="1" t="b">
         <v>0</v>
@@ -13606,22 +13606,22 @@
         <v>0</v>
       </c>
       <c r="AU47" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV47" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AW47" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX47" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AY47" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ47" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA47" s="1" t="b">
         <v>0</v>
@@ -13675,10 +13675,10 @@
         <v>0</v>
       </c>
       <c r="BR47" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS47" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT47" s="1" t="b">
         <v>0</v>
@@ -13690,13 +13690,13 @@
         <v>0</v>
       </c>
       <c r="BW47" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX47" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY47" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ47" s="1" t="b">
         <v>1</v>
@@ -13705,10 +13705,10 @@
         <v>1</v>
       </c>
       <c r="CB47" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC47" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD47" s="1" t="b">
         <v>0</v>
@@ -13764,13 +13764,13 @@
         <v>0</v>
       </c>
       <c r="I48" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" s="1" t="b">
         <v>0</v>
@@ -13788,10 +13788,10 @@
         <v>0</v>
       </c>
       <c r="Q48" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48" s="1" t="b">
         <v>0</v>
@@ -13800,7 +13800,7 @@
         <v>0</v>
       </c>
       <c r="U48" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V48" s="1" t="b">
         <v>0</v>
@@ -13854,7 +13854,7 @@
         <v>0</v>
       </c>
       <c r="AM48" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN48" s="1" t="b">
         <v>0</v>
@@ -13872,7 +13872,7 @@
         <v>0</v>
       </c>
       <c r="AS48" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT48" s="1" t="b">
         <v>0</v>
@@ -13881,13 +13881,13 @@
         <v>0</v>
       </c>
       <c r="AV48" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW48" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AX48" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY48" s="1" t="b">
         <v>0</v>
@@ -13944,7 +13944,7 @@
         <v>0</v>
       </c>
       <c r="BQ48" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR48" s="1" t="b">
         <v>0</v>
@@ -13956,10 +13956,10 @@
         <v>0</v>
       </c>
       <c r="BU48" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV48" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW48" s="1" t="b">
         <v>0</v>
@@ -13977,13 +13977,13 @@
         <v>0</v>
       </c>
       <c r="CB48" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC48" s="1" t="b">
         <v>0</v>
       </c>
       <c r="CD48" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE48" s="1" t="b">
         <v>0</v>
@@ -14033,13 +14033,13 @@
         <v>0</v>
       </c>
       <c r="H49" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J49" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="1" t="b">
         <v>0</v>
@@ -14066,7 +14066,7 @@
         <v>0</v>
       </c>
       <c r="S49" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" s="1" t="b">
         <v>0</v>
@@ -14075,7 +14075,7 @@
         <v>0</v>
       </c>
       <c r="V49" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W49" s="1" t="b">
         <v>0</v>
@@ -14144,7 +14144,7 @@
         <v>0</v>
       </c>
       <c r="AS49" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT49" s="1" t="b">
         <v>0</v>
@@ -14153,13 +14153,13 @@
         <v>0</v>
       </c>
       <c r="AV49" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW49" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AX49" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY49" s="1" t="b">
         <v>0</v>
@@ -14168,10 +14168,10 @@
         <v>0</v>
       </c>
       <c r="BA49" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB49" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC49" s="1" t="b">
         <v>0</v>
@@ -14216,7 +14216,7 @@
         <v>0</v>
       </c>
       <c r="BQ49" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR49" s="1" t="b">
         <v>0</v>
@@ -14225,7 +14225,7 @@
         <v>0</v>
       </c>
       <c r="BT49" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU49" s="1" t="b">
         <v>0</v>
@@ -14252,16 +14252,16 @@
         <v>0</v>
       </c>
       <c r="CC49" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD49" s="1" t="b">
         <v>0</v>
       </c>
       <c r="CE49" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF49" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG49" s="1" t="b">
         <v>0</v>
@@ -14302,13 +14302,13 @@
         <v>0</v>
       </c>
       <c r="G50" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I50" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" s="1" t="b">
         <v>0</v>
@@ -14341,7 +14341,7 @@
         <v>0</v>
       </c>
       <c r="T50" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50" s="1" t="b">
         <v>0</v>
@@ -14350,7 +14350,7 @@
         <v>0</v>
       </c>
       <c r="W50" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X50" s="1" t="b">
         <v>0</v>
@@ -14428,13 +14428,13 @@
         <v>0</v>
       </c>
       <c r="AW50" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX50" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AY50" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ50" s="1" t="b">
         <v>0</v>
@@ -14485,7 +14485,7 @@
         <v>0</v>
       </c>
       <c r="BP50" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ50" s="1" t="b">
         <v>0</v>
@@ -14494,7 +14494,7 @@
         <v>0</v>
       </c>
       <c r="BS50" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT50" s="1" t="b">
         <v>0</v>
@@ -14527,13 +14527,13 @@
         <v>0</v>
       </c>
       <c r="CD50" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE50" s="1" t="b">
         <v>0</v>
       </c>
       <c r="CF50" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG50" s="1" t="b">
         <v>0</v>
@@ -14571,7 +14571,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" s="1" t="b">
         <v>0</v>
@@ -14613,10 +14613,10 @@
         <v>0</v>
       </c>
       <c r="T51" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51" s="1" t="b">
         <v>0</v>
@@ -14625,7 +14625,7 @@
         <v>0</v>
       </c>
       <c r="X51" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y51" s="1" t="b">
         <v>0</v>
@@ -14658,10 +14658,10 @@
         <v>0</v>
       </c>
       <c r="AI51" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ51" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK51" s="1" t="b">
         <v>0</v>
@@ -14703,10 +14703,10 @@
         <v>0</v>
       </c>
       <c r="AX51" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY51" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ51" s="1" t="b">
         <v>0</v>
@@ -14718,10 +14718,10 @@
         <v>0</v>
       </c>
       <c r="BC51" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD51" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE51" s="1" t="b">
         <v>0</v>
@@ -14754,7 +14754,7 @@
         <v>0</v>
       </c>
       <c r="BO51" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP51" s="1" t="b">
         <v>0</v>
@@ -14763,10 +14763,10 @@
         <v>0</v>
       </c>
       <c r="BR51" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS51" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT51" s="1" t="b">
         <v>0</v>
@@ -14799,7 +14799,7 @@
         <v>0</v>
       </c>
       <c r="CD51" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE51" s="1" t="b">
         <v>0</v>
@@ -14808,7 +14808,7 @@
         <v>0</v>
       </c>
       <c r="CG51" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH51" s="1" t="b">
         <v>0</v>
@@ -14843,13 +14843,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H52" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" s="1" t="b">
         <v>0</v>
@@ -14888,7 +14888,7 @@
         <v>0</v>
       </c>
       <c r="U52" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V52" s="1" t="b">
         <v>0</v>
@@ -14897,7 +14897,7 @@
         <v>0</v>
       </c>
       <c r="X52" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y52" s="1" t="b">
         <v>0</v>
@@ -14927,7 +14927,7 @@
         <v>0</v>
       </c>
       <c r="AH52" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI52" s="1" t="b">
         <v>0</v>
@@ -14975,13 +14975,13 @@
         <v>0</v>
       </c>
       <c r="AX52" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY52" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AZ52" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA52" s="1" t="b">
         <v>0</v>
@@ -14996,7 +14996,7 @@
         <v>0</v>
       </c>
       <c r="BE52" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF52" s="1" t="b">
         <v>0</v>
@@ -15035,7 +15035,7 @@
         <v>0</v>
       </c>
       <c r="BR52" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS52" s="1" t="b">
         <v>0</v>
@@ -15080,10 +15080,10 @@
         <v>0</v>
       </c>
       <c r="CG52" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH52" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI52" s="1" t="b">
         <v>0</v>
@@ -15112,7 +15112,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="1" t="b">
         <v>0</v>
@@ -15163,7 +15163,7 @@
         <v>0</v>
       </c>
       <c r="V53" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W53" s="1" t="b">
         <v>0</v>
@@ -15196,7 +15196,7 @@
         <v>0</v>
       </c>
       <c r="AG53" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH53" s="1" t="b">
         <v>0</v>
@@ -15250,13 +15250,13 @@
         <v>0</v>
       </c>
       <c r="AY53" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ53" s="1" t="b">
         <v>1</v>
       </c>
       <c r="BA53" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB53" s="1" t="b">
         <v>0</v>
@@ -15268,7 +15268,7 @@
         <v>0</v>
       </c>
       <c r="BE53" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF53" s="1" t="b">
         <v>0</v>
@@ -15298,7 +15298,7 @@
         <v>0</v>
       </c>
       <c r="BO53" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP53" s="1" t="b">
         <v>0</v>
@@ -15307,7 +15307,7 @@
         <v>0</v>
       </c>
       <c r="BR53" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS53" s="1" t="b">
         <v>0</v>
@@ -15346,7 +15346,7 @@
         <v>0</v>
       </c>
       <c r="CE53" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF53" s="1" t="b">
         <v>0</v>
@@ -15355,7 +15355,7 @@
         <v>0</v>
       </c>
       <c r="CH53" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI53" s="1" t="b">
         <v>0</v>
@@ -15384,7 +15384,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="1" t="b">
         <v>0</v>
@@ -15393,7 +15393,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" s="1" t="b">
         <v>0</v>
@@ -15435,13 +15435,13 @@
         <v>0</v>
       </c>
       <c r="V54" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W54" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X54" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="1" t="b">
         <v>0</v>
@@ -15465,7 +15465,7 @@
         <v>0</v>
       </c>
       <c r="AF54" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG54" s="1" t="b">
         <v>0</v>
@@ -15504,7 +15504,7 @@
         <v>0</v>
       </c>
       <c r="AS54" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT54" s="1" t="b">
         <v>0</v>
@@ -15522,13 +15522,13 @@
         <v>0</v>
       </c>
       <c r="AY54" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ54" s="1" t="b">
         <v>1</v>
       </c>
       <c r="BA54" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB54" s="1" t="b">
         <v>0</v>
@@ -15546,7 +15546,7 @@
         <v>0</v>
       </c>
       <c r="BG54" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH54" s="1" t="b">
         <v>0</v>
@@ -15570,13 +15570,13 @@
         <v>0</v>
       </c>
       <c r="BO54" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP54" s="1" t="b">
         <v>0</v>
       </c>
       <c r="BQ54" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR54" s="1" t="b">
         <v>0</v>
@@ -15618,7 +15618,7 @@
         <v>0</v>
       </c>
       <c r="CE54" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF54" s="1" t="b">
         <v>0</v>
@@ -15627,7 +15627,7 @@
         <v>0</v>
       </c>
       <c r="CH54" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI54" s="1" t="b">
         <v>0</v>
@@ -15656,7 +15656,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="1" t="b">
         <v>0</v>
@@ -15707,13 +15707,13 @@
         <v>0</v>
       </c>
       <c r="V55" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W55" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X55" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y55" s="1" t="b">
         <v>0</v>
@@ -15734,7 +15734,7 @@
         <v>0</v>
       </c>
       <c r="AE55" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF55" s="1" t="b">
         <v>0</v>
@@ -15797,13 +15797,13 @@
         <v>0</v>
       </c>
       <c r="AZ55" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA55" s="1" t="b">
         <v>1</v>
       </c>
       <c r="BB55" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC55" s="1" t="b">
         <v>0</v>
@@ -15818,7 +15818,7 @@
         <v>0</v>
       </c>
       <c r="BG55" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH55" s="1" t="b">
         <v>0</v>
@@ -15848,7 +15848,7 @@
         <v>0</v>
       </c>
       <c r="BQ55" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR55" s="1" t="b">
         <v>0</v>
@@ -15899,7 +15899,7 @@
         <v>0</v>
       </c>
       <c r="CH55" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI55" s="1" t="b">
         <v>0</v>
@@ -15928,7 +15928,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" s="1" t="b">
         <v>0</v>
@@ -15937,7 +15937,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" s="1" t="b">
         <v>0</v>
@@ -15976,7 +15976,7 @@
         <v>0</v>
       </c>
       <c r="U56" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V56" s="1" t="b">
         <v>0</v>
@@ -16003,7 +16003,7 @@
         <v>0</v>
       </c>
       <c r="AD56" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE56" s="1" t="b">
         <v>0</v>
@@ -16069,13 +16069,13 @@
         <v>0</v>
       </c>
       <c r="AZ56" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA56" s="1" t="b">
         <v>1</v>
       </c>
       <c r="BB56" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC56" s="1" t="b">
         <v>0</v>
@@ -16096,7 +16096,7 @@
         <v>0</v>
       </c>
       <c r="BI56" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ56" s="1" t="b">
         <v>0</v>
@@ -16114,7 +16114,7 @@
         <v>0</v>
       </c>
       <c r="BO56" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP56" s="1" t="b">
         <v>0</v>
@@ -16123,7 +16123,7 @@
         <v>0</v>
       </c>
       <c r="BR56" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS56" s="1" t="b">
         <v>0</v>
@@ -16159,7 +16159,7 @@
         <v>0</v>
       </c>
       <c r="CD56" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE56" s="1" t="b">
         <v>0</v>
@@ -16171,7 +16171,7 @@
         <v>0</v>
       </c>
       <c r="CH56" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI56" s="1" t="b">
         <v>0</v>
@@ -16200,7 +16200,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="1" t="b">
         <v>0</v>
@@ -16212,7 +16212,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" s="1" t="b">
         <v>0</v>
@@ -16248,13 +16248,13 @@
         <v>0</v>
       </c>
       <c r="U57" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V57" s="1" t="b">
         <v>0</v>
       </c>
       <c r="W57" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X57" s="1" t="b">
         <v>0</v>
@@ -16272,7 +16272,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD57" s="1" t="b">
         <v>0</v>
@@ -16344,13 +16344,13 @@
         <v>0</v>
       </c>
       <c r="BA57" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB57" s="1" t="b">
         <v>1</v>
       </c>
       <c r="BC57" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD57" s="1" t="b">
         <v>0</v>
@@ -16368,7 +16368,7 @@
         <v>0</v>
       </c>
       <c r="BI57" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ57" s="1" t="b">
         <v>0</v>
@@ -16389,13 +16389,13 @@
         <v>0</v>
       </c>
       <c r="BP57" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ57" s="1" t="b">
         <v>0</v>
       </c>
       <c r="BR57" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS57" s="1" t="b">
         <v>0</v>
@@ -16431,7 +16431,7 @@
         <v>0</v>
       </c>
       <c r="CD57" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE57" s="1" t="b">
         <v>0</v>
@@ -16443,7 +16443,7 @@
         <v>0</v>
       </c>
       <c r="CH57" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI57" s="1" t="b">
         <v>0</v>
@@ -16475,7 +16475,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" s="1" t="b">
         <v>0</v>
@@ -16484,7 +16484,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" s="1" t="b">
         <v>0</v>
@@ -16520,13 +16520,13 @@
         <v>0</v>
       </c>
       <c r="U58" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V58" s="1" t="b">
         <v>0</v>
       </c>
       <c r="W58" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X58" s="1" t="b">
         <v>0</v>
@@ -16541,7 +16541,7 @@
         <v>0</v>
       </c>
       <c r="AB58" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC58" s="1" t="b">
         <v>0</v>
@@ -16619,7 +16619,7 @@
         <v>0</v>
       </c>
       <c r="BB58" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC58" s="1" t="b">
         <v>1</v>
@@ -16646,7 +16646,7 @@
         <v>0</v>
       </c>
       <c r="BK58" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL58" s="1" t="b">
         <v>0</v>
@@ -16661,13 +16661,13 @@
         <v>0</v>
       </c>
       <c r="BP58" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ58" s="1" t="b">
         <v>0</v>
       </c>
       <c r="BR58" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS58" s="1" t="b">
         <v>0</v>
@@ -16700,7 +16700,7 @@
         <v>0</v>
       </c>
       <c r="CC58" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD58" s="1" t="b">
         <v>0</v>
@@ -16712,7 +16712,7 @@
         <v>0</v>
       </c>
       <c r="CG58" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH58" s="1" t="b">
         <v>0</v>
@@ -16747,7 +16747,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" s="1" t="b">
         <v>0</v>
@@ -16759,7 +16759,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" s="1" t="b">
         <v>0</v>
@@ -16789,13 +16789,13 @@
         <v>0</v>
       </c>
       <c r="T59" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U59" s="1" t="b">
         <v>0</v>
       </c>
       <c r="V59" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W59" s="1" t="b">
         <v>0</v>
@@ -16810,7 +16810,7 @@
         <v>0</v>
       </c>
       <c r="AA59" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB59" s="1" t="b">
         <v>0</v>
@@ -16864,7 +16864,7 @@
         <v>0</v>
       </c>
       <c r="AS59" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT59" s="1" t="b">
         <v>0</v>
@@ -16891,13 +16891,13 @@
         <v>0</v>
       </c>
       <c r="BB59" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC59" s="1" t="b">
         <v>1</v>
       </c>
       <c r="BD59" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE59" s="1" t="b">
         <v>0</v>
@@ -16918,7 +16918,7 @@
         <v>0</v>
       </c>
       <c r="BK59" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL59" s="1" t="b">
         <v>0</v>
@@ -16936,13 +16936,13 @@
         <v>0</v>
       </c>
       <c r="BQ59" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR59" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS59" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT59" s="1" t="b">
         <v>0</v>
@@ -16972,7 +16972,7 @@
         <v>0</v>
       </c>
       <c r="CC59" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD59" s="1" t="b">
         <v>0</v>
@@ -16984,7 +16984,7 @@
         <v>0</v>
       </c>
       <c r="CG59" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH59" s="1" t="b">
         <v>0</v>
@@ -17022,7 +17022,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" s="1" t="b">
         <v>0</v>
@@ -17034,10 +17034,10 @@
         <v>0</v>
       </c>
       <c r="K60" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60" s="1" t="b">
         <v>0</v>
@@ -17061,10 +17061,10 @@
         <v>0</v>
       </c>
       <c r="T60" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U60" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V60" s="1" t="b">
         <v>0</v>
@@ -17079,7 +17079,7 @@
         <v>0</v>
       </c>
       <c r="Z60" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA60" s="1" t="b">
         <v>0</v>
@@ -17136,7 +17136,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT60" s="1" t="b">
         <v>0</v>
@@ -17166,13 +17166,13 @@
         <v>0</v>
       </c>
       <c r="BC60" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD60" s="1" t="b">
         <v>1</v>
       </c>
       <c r="BE60" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF60" s="1" t="b">
         <v>0</v>
@@ -17196,7 +17196,7 @@
         <v>0</v>
       </c>
       <c r="BM60" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN60" s="1" t="b">
         <v>0</v>
@@ -17208,13 +17208,13 @@
         <v>0</v>
       </c>
       <c r="BQ60" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR60" s="1" t="b">
         <v>1</v>
       </c>
       <c r="BS60" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT60" s="1" t="b">
         <v>0</v>
@@ -17238,10 +17238,10 @@
         <v>0</v>
       </c>
       <c r="CA60" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB60" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC60" s="1" t="b">
         <v>0</v>
@@ -17253,7 +17253,7 @@
         <v>0</v>
       </c>
       <c r="CF60" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG60" s="1" t="b">
         <v>0</v>
@@ -17297,10 +17297,10 @@
         <v>0</v>
       </c>
       <c r="H61" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" s="1" t="b">
         <v>0</v>
@@ -17312,16 +17312,16 @@
         <v>0</v>
       </c>
       <c r="M61" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N61" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P61" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="1" t="b">
         <v>0</v>
@@ -17336,10 +17336,10 @@
         <v>1</v>
       </c>
       <c r="U61" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V61" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W61" s="1" t="b">
         <v>0</v>
@@ -17372,7 +17372,7 @@
         <v>0</v>
       </c>
       <c r="AG61" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH61" s="1" t="b">
         <v>1</v>
@@ -17438,13 +17438,13 @@
         <v>0</v>
       </c>
       <c r="BC61" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD61" s="1" t="b">
         <v>1</v>
       </c>
       <c r="BE61" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF61" s="1" t="b">
         <v>0</v>
@@ -17468,46 +17468,46 @@
         <v>0</v>
       </c>
       <c r="BM61" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN61" s="1" t="b">
         <v>0</v>
       </c>
       <c r="BO61" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP61" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ61" s="1" t="b">
         <v>1</v>
       </c>
       <c r="BR61" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS61" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT61" s="1" t="b">
         <v>1</v>
       </c>
       <c r="BU61" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV61" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW61" s="1" t="b">
         <v>0</v>
       </c>
       <c r="BX61" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY61" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ61" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA61" s="1" t="b">
         <v>0</v>
@@ -17522,7 +17522,7 @@
         <v>0</v>
       </c>
       <c r="CE61" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF61" s="1" t="b">
         <v>0</v>
@@ -17572,10 +17572,10 @@
         <v>0</v>
       </c>
       <c r="I62" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" s="1" t="b">
         <v>0</v>
@@ -17590,10 +17590,10 @@
         <v>0</v>
       </c>
       <c r="O62" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P62" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62" s="1" t="b">
         <v>1</v>
@@ -17602,22 +17602,22 @@
         <v>0</v>
       </c>
       <c r="S62" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T62" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U62" s="1" t="b">
         <v>0</v>
       </c>
       <c r="V62" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W62" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X62" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y62" s="1" t="b">
         <v>0</v>
@@ -17677,10 +17677,10 @@
         <v>0</v>
       </c>
       <c r="AR62" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS62" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT62" s="1" t="b">
         <v>0</v>
@@ -17713,13 +17713,13 @@
         <v>0</v>
       </c>
       <c r="BD62" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE62" s="1" t="b">
         <v>1</v>
       </c>
       <c r="BF62" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG62" s="1" t="b">
         <v>0</v>
@@ -17743,16 +17743,16 @@
         <v>0</v>
       </c>
       <c r="BN62" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO62" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP62" s="1" t="b">
         <v>1</v>
       </c>
       <c r="BQ62" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR62" s="1" t="b">
         <v>0</v>
@@ -17770,7 +17770,7 @@
         <v>1</v>
       </c>
       <c r="BW62" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX62" s="1" t="b">
         <v>0</v>
@@ -17785,13 +17785,13 @@
         <v>0</v>
       </c>
       <c r="CB62" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC62" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD62" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE62" s="1" t="b">
         <v>0</v>
@@ -17850,19 +17850,19 @@
         <v>0</v>
       </c>
       <c r="K63" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" s="1" t="b">
         <v>0</v>
       </c>
       <c r="M63" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O63" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63" s="1" t="b">
         <v>0</v>
@@ -17877,19 +17877,19 @@
         <v>0</v>
       </c>
       <c r="T63" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U63" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V63" s="1" t="b">
         <v>1</v>
       </c>
       <c r="W63" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X63" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y63" s="1" t="b">
         <v>0</v>
@@ -17940,13 +17940,13 @@
         <v>0</v>
       </c>
       <c r="AO63" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP63" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ63" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR63" s="1" t="b">
         <v>0</v>
@@ -17955,13 +17955,13 @@
         <v>0</v>
       </c>
       <c r="AT63" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU63" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV63" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW63" s="1" t="b">
         <v>0</v>
@@ -17988,10 +17988,10 @@
         <v>0</v>
       </c>
       <c r="BE63" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF63" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG63" s="1" t="b">
         <v>0</v>
@@ -18015,13 +18015,13 @@
         <v>0</v>
       </c>
       <c r="BN63" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO63" s="1" t="b">
         <v>1</v>
       </c>
       <c r="BP63" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ63" s="1" t="b">
         <v>0</v>
@@ -18045,16 +18045,16 @@
         <v>0</v>
       </c>
       <c r="BX63" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY63" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ63" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA63" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB63" s="1" t="b">
         <v>0</v>
@@ -18152,19 +18152,19 @@
         <v>0</v>
       </c>
       <c r="U64" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V64" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W64" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X64" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y64" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z64" s="1" t="b">
         <v>0</v>
@@ -18209,7 +18209,7 @@
         <v>0</v>
       </c>
       <c r="AN64" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO64" s="1" t="b">
         <v>0</v>
@@ -18224,7 +18224,7 @@
         <v>0</v>
       </c>
       <c r="AS64" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT64" s="1" t="b">
         <v>0</v>
@@ -18236,10 +18236,10 @@
         <v>0</v>
       </c>
       <c r="AW64" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX64" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY64" s="1" t="b">
         <v>0</v>
@@ -18260,13 +18260,13 @@
         <v>0</v>
       </c>
       <c r="BE64" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF64" s="1" t="b">
         <v>1</v>
       </c>
       <c r="BG64" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH64" s="1" t="b">
         <v>0</v>
@@ -18284,13 +18284,13 @@
         <v>0</v>
       </c>
       <c r="BM64" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN64" s="1" t="b">
         <v>1</v>
       </c>
       <c r="BO64" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP64" s="1" t="b">
         <v>0</v>
@@ -18427,22 +18427,22 @@
         <v>0</v>
       </c>
       <c r="V65" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W65" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X65" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y65" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z65" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA65" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB65" s="1" t="b">
         <v>0</v>
@@ -18478,7 +18478,7 @@
         <v>0</v>
       </c>
       <c r="AM65" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN65" s="1" t="b">
         <v>0</v>
@@ -18514,7 +18514,7 @@
         <v>0</v>
       </c>
       <c r="AY65" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ65" s="1" t="b">
         <v>0</v>
@@ -18535,7 +18535,7 @@
         <v>0</v>
       </c>
       <c r="BF65" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG65" s="1" t="b">
         <v>1</v>
@@ -18550,16 +18550,16 @@
         <v>0</v>
       </c>
       <c r="BK65" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL65" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM65" s="1" t="b">
         <v>1</v>
       </c>
       <c r="BN65" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO65" s="1" t="b">
         <v>0</v>
@@ -18702,22 +18702,22 @@
         <v>0</v>
       </c>
       <c r="W66" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X66" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y66" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z66" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA66" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB66" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC66" s="1" t="b">
         <v>0</v>
@@ -18747,7 +18747,7 @@
         <v>0</v>
       </c>
       <c r="AL66" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM66" s="1" t="b">
         <v>0</v>
@@ -18762,19 +18762,19 @@
         <v>0</v>
       </c>
       <c r="AQ66" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR66" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS66" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT66" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AU66" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV66" s="1" t="b">
         <v>0</v>
@@ -18789,7 +18789,7 @@
         <v>0</v>
       </c>
       <c r="AZ66" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA66" s="1" t="b">
         <v>0</v>
@@ -18807,28 +18807,28 @@
         <v>0</v>
       </c>
       <c r="BF66" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG66" s="1" t="b">
         <v>1</v>
       </c>
       <c r="BH66" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI66" s="1" t="b">
         <v>0</v>
       </c>
       <c r="BJ66" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK66" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL66" s="1" t="b">
         <v>1</v>
       </c>
       <c r="BM66" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN66" s="1" t="b">
         <v>0</v>
@@ -18980,19 +18980,19 @@
         <v>0</v>
       </c>
       <c r="Y67" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z67" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA67" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AB67" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC67" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD67" s="1" t="b">
         <v>1</v>
@@ -19019,19 +19019,19 @@
         <v>0</v>
       </c>
       <c r="AL67" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM67" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AN67" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO67" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP67" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ67" s="1" t="b">
         <v>0</v>
@@ -19043,13 +19043,13 @@
         <v>0</v>
       </c>
       <c r="AT67" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU67" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AV67" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW67" s="1" t="b">
         <v>0</v>
@@ -19061,7 +19061,7 @@
         <v>0</v>
       </c>
       <c r="AZ67" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA67" s="1" t="b">
         <v>0</v>
@@ -19082,22 +19082,22 @@
         <v>0</v>
       </c>
       <c r="BG67" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH67" s="1" t="b">
         <v>1</v>
       </c>
       <c r="BI67" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ67" s="1" t="b">
         <v>1</v>
       </c>
       <c r="BK67" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL67" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM67" s="1" t="b">
         <v>0</v>
@@ -19255,13 +19255,13 @@
         <v>0</v>
       </c>
       <c r="Z68" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA68" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB68" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC68" s="1" t="b">
         <v>1</v>
@@ -19270,10 +19270,10 @@
         <v>1</v>
       </c>
       <c r="AE68" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF68" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG68" s="1" t="b">
         <v>0</v>
@@ -19288,13 +19288,13 @@
         <v>0</v>
       </c>
       <c r="AK68" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL68" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AM68" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN68" s="1" t="b">
         <v>0</v>
@@ -19324,10 +19324,10 @@
         <v>0</v>
       </c>
       <c r="AW68" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX68" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY68" s="1" t="b">
         <v>0</v>
@@ -19351,10 +19351,10 @@
         <v>0</v>
       </c>
       <c r="BF68" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG68" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH68" s="1" t="b">
         <v>1</v>
@@ -19363,10 +19363,10 @@
         <v>1</v>
       </c>
       <c r="BJ68" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK68" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL68" s="1" t="b">
         <v>0</v>
@@ -19530,10 +19530,10 @@
         <v>0</v>
       </c>
       <c r="AA69" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB69" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC69" s="1" t="b">
         <v>1</v>
@@ -19542,16 +19542,16 @@
         <v>1</v>
       </c>
       <c r="AE69" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF69" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG69" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH69" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI69" s="1" t="b">
         <v>0</v>
@@ -19563,7 +19563,7 @@
         <v>0</v>
       </c>
       <c r="AL69" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM69" s="1" t="b">
         <v>0</v>
@@ -19602,13 +19602,13 @@
         <v>0</v>
       </c>
       <c r="AY69" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ69" s="1" t="b">
         <v>0</v>
       </c>
       <c r="BA69" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB69" s="1" t="b">
         <v>0</v>
@@ -19617,25 +19617,25 @@
         <v>0</v>
       </c>
       <c r="BD69" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE69" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF69" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG69" s="1" t="b">
         <v>1</v>
       </c>
       <c r="BH69" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI69" s="1" t="b">
         <v>1</v>
       </c>
       <c r="BJ69" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK69" s="1" t="b">
         <v>0</v>
@@ -19811,25 +19811,25 @@
         <v>1</v>
       </c>
       <c r="AD70" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE70" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF70" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG70" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH70" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI70" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ70" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK70" s="1" t="b">
         <v>1</v>
@@ -19874,19 +19874,19 @@
         <v>0</v>
       </c>
       <c r="AY70" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ70" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA70" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB70" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC70" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD70" s="1" t="b">
         <v>1</v>
@@ -19895,16 +19895,16 @@
         <v>1</v>
       </c>
       <c r="BF70" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG70" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH70" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI70" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ70" s="1" t="b">
         <v>1</v>
@@ -20080,28 +20080,28 @@
         <v>1</v>
       </c>
       <c r="AC71" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD71" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AE71" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF71" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG71" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH71" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI71" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ71" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK71" s="1" t="b">
         <v>1</v>
@@ -20149,22 +20149,22 @@
         <v>0</v>
       </c>
       <c r="AZ71" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA71" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB71" s="1" t="b">
         <v>1</v>
       </c>
       <c r="BC71" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD71" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE71" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF71" s="1" t="b">
         <v>0</v>
@@ -20176,13 +20176,13 @@
         <v>0</v>
       </c>
       <c r="BI71" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ71" s="1" t="b">
         <v>1</v>
       </c>
       <c r="BK71" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL71" s="1" t="b">
         <v>0</v>
@@ -20367,13 +20367,13 @@
         <v>0</v>
       </c>
       <c r="AH72" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI72" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ72" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK72" s="1" t="b">
         <v>0</v>
@@ -20424,13 +20424,13 @@
         <v>0</v>
       </c>
       <c r="BA72" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB72" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC72" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD72" s="1" t="b">
         <v>0</v>
@@ -20451,13 +20451,13 @@
         <v>0</v>
       </c>
       <c r="BJ72" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK72" s="1" t="b">
         <v>1</v>
       </c>
       <c r="BL72" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM72" s="1" t="b">
         <v>0</v>
@@ -20615,7 +20615,7 @@
         <v>0</v>
       </c>
       <c r="Z73" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA73" s="1" t="b">
         <v>1</v>
@@ -20645,10 +20645,10 @@
         <v>0</v>
       </c>
       <c r="AJ73" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK73" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL73" s="1" t="b">
         <v>0</v>
@@ -20696,7 +20696,7 @@
         <v>1</v>
       </c>
       <c r="BA73" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB73" s="1" t="b">
         <v>0</v>
@@ -20723,13 +20723,13 @@
         <v>0</v>
       </c>
       <c r="BJ73" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK73" s="1" t="b">
         <v>1</v>
       </c>
       <c r="BL73" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM73" s="1" t="b">
         <v>0</v>
@@ -20917,13 +20917,13 @@
         <v>0</v>
       </c>
       <c r="AJ74" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK74" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL74" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM74" s="1" t="b">
         <v>0</v>
@@ -20965,10 +20965,10 @@
         <v>0</v>
       </c>
       <c r="AZ74" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA74" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB74" s="1" t="b">
         <v>0</v>
@@ -20998,13 +20998,13 @@
         <v>0</v>
       </c>
       <c r="BK74" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL74" s="1" t="b">
         <v>1</v>
       </c>
       <c r="BM74" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN74" s="1" t="b">
         <v>0</v>
@@ -21156,7 +21156,7 @@
         <v>0</v>
       </c>
       <c r="Y75" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z75" s="1" t="b">
         <v>1</v>
@@ -21189,7 +21189,7 @@
         <v>0</v>
       </c>
       <c r="AJ75" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK75" s="1" t="b">
         <v>0</v>
@@ -21198,7 +21198,7 @@
         <v>0</v>
       </c>
       <c r="AM75" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN75" s="1" t="b">
         <v>0</v>
@@ -21234,13 +21234,13 @@
         <v>0</v>
       </c>
       <c r="AY75" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ75" s="1" t="b">
         <v>0</v>
       </c>
       <c r="BA75" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB75" s="1" t="b">
         <v>0</v>
@@ -21273,10 +21273,10 @@
         <v>0</v>
       </c>
       <c r="BL75" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM75" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN75" s="1" t="b">
         <v>0</v>
@@ -21431,7 +21431,7 @@
         <v>1</v>
       </c>
       <c r="Z76" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA76" s="1" t="b">
         <v>0</v>
@@ -21461,7 +21461,7 @@
         <v>0</v>
       </c>
       <c r="AJ76" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK76" s="1" t="b">
         <v>0</v>
@@ -21473,7 +21473,7 @@
         <v>0</v>
       </c>
       <c r="AN76" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO76" s="1" t="b">
         <v>0</v>
@@ -21503,13 +21503,13 @@
         <v>0</v>
       </c>
       <c r="AX76" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY76" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AZ76" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA76" s="1" t="b">
         <v>0</v>
@@ -21545,13 +21545,13 @@
         <v>0</v>
       </c>
       <c r="BL76" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM76" s="1" t="b">
         <v>1</v>
       </c>
       <c r="BN76" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO76" s="1" t="b">
         <v>0</v>
@@ -21736,7 +21736,7 @@
         <v>0</v>
       </c>
       <c r="AK77" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL77" s="1" t="b">
         <v>0</v>
@@ -21748,10 +21748,10 @@
         <v>0</v>
       </c>
       <c r="AO77" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP77" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ77" s="1" t="b">
         <v>0</v>
@@ -21769,10 +21769,10 @@
         <v>0</v>
       </c>
       <c r="AV77" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW77" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX77" s="1" t="b">
         <v>0</v>
@@ -21781,7 +21781,7 @@
         <v>0</v>
       </c>
       <c r="AZ77" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA77" s="1" t="b">
         <v>0</v>
@@ -21820,7 +21820,7 @@
         <v>0</v>
       </c>
       <c r="BM77" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN77" s="1" t="b">
         <v>1</v>
@@ -21972,7 +21972,7 @@
         <v>1</v>
       </c>
       <c r="Y78" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z78" s="1" t="b">
         <v>0</v>
@@ -22008,7 +22008,7 @@
         <v>0</v>
       </c>
       <c r="AK78" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL78" s="1" t="b">
         <v>0</v>
@@ -22026,19 +22026,19 @@
         <v>0</v>
       </c>
       <c r="AQ78" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR78" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS78" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT78" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU78" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV78" s="1" t="b">
         <v>0</v>
@@ -22053,7 +22053,7 @@
         <v>0</v>
       </c>
       <c r="AZ78" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA78" s="1" t="b">
         <v>0</v>
@@ -22092,13 +22092,13 @@
         <v>0</v>
       </c>
       <c r="BM78" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN78" s="1" t="b">
         <v>1</v>
       </c>
       <c r="BO78" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP78" s="1" t="b">
         <v>0</v>
@@ -22280,10 +22280,10 @@
         <v>0</v>
       </c>
       <c r="AK79" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL79" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM79" s="1" t="b">
         <v>0</v>
@@ -22322,7 +22322,7 @@
         <v>0</v>
       </c>
       <c r="AY79" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ79" s="1" t="b">
         <v>0</v>
@@ -22367,13 +22367,13 @@
         <v>0</v>
       </c>
       <c r="BN79" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO79" s="1" t="b">
         <v>1</v>
       </c>
       <c r="BP79" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ79" s="1" t="b">
         <v>0</v>
@@ -22507,7 +22507,7 @@
         <v>0</v>
       </c>
       <c r="V80" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W80" s="1" t="b">
         <v>1</v>
@@ -22558,7 +22558,7 @@
         <v>0</v>
       </c>
       <c r="AM80" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN80" s="1" t="b">
         <v>0</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="AX80" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY80" s="1" t="b">
         <v>0</v>
@@ -22645,7 +22645,7 @@
         <v>1</v>
       </c>
       <c r="BP80" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ80" s="1" t="b">
         <v>0</v>
@@ -22830,10 +22830,10 @@
         <v>0</v>
       </c>
       <c r="AM81" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN81" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO81" s="1" t="b">
         <v>0</v>
@@ -22857,10 +22857,10 @@
         <v>0</v>
       </c>
       <c r="AV81" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW81" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX81" s="1" t="b">
         <v>0</v>
@@ -22914,13 +22914,13 @@
         <v>0</v>
       </c>
       <c r="BO81" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP81" s="1" t="b">
         <v>1</v>
       </c>
       <c r="BQ81" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR81" s="1" t="b">
         <v>0</v>
@@ -23108,25 +23108,25 @@
         <v>0</v>
       </c>
       <c r="AO82" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP82" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ82" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR82" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS82" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT82" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU82" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV82" s="1" t="b">
         <v>0</v>
@@ -23189,7 +23189,7 @@
         <v>0</v>
       </c>
       <c r="BP82" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ82" s="1" t="b">
         <v>1</v>
@@ -23296,25 +23296,25 @@
         <v>0</v>
       </c>
       <c r="M83" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N83" s="1" t="b">
         <v>0</v>
       </c>
       <c r="O83" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P83" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Q83" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R83" s="1" t="b">
         <v>0</v>
       </c>
       <c r="S83" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T83" s="1" t="b">
         <v>0</v>
@@ -23323,172 +23323,172 @@
         <v>1</v>
       </c>
       <c r="V83" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W83" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X83" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y83" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z83" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA83" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AB83" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC83" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AD83" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE83" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF83" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AG83" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH83" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AI83" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ83" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK83" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AL83" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM83" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AN83" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO83" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP83" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AQ83" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR83" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AS83" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT83" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AU83" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV83" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AW83" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX83" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AY83" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ83" s="1" t="b">
         <v>0</v>
       </c>
       <c r="BA83" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB83" s="1" t="b">
         <v>0</v>
       </c>
       <c r="BC83" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD83" s="1" t="b">
         <v>0</v>
       </c>
       <c r="BE83" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF83" s="1" t="b">
         <v>0</v>
       </c>
       <c r="BG83" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH83" s="1" t="b">
         <v>0</v>
       </c>
       <c r="BI83" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ83" s="1" t="b">
         <v>0</v>
       </c>
       <c r="BK83" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL83" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM83" s="1" t="b">
         <v>0</v>
       </c>
       <c r="BN83" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO83" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP83" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ83" s="1" t="b">
         <v>1</v>
       </c>
       <c r="BR83" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS83" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT83" s="1" t="b">
         <v>0</v>
       </c>
       <c r="BU83" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV83" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW83" s="1" t="b">
         <v>0</v>
       </c>
       <c r="BX83" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY83" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ83" s="1" t="b">
         <v>0</v>
@@ -23565,28 +23565,28 @@
         <v>0</v>
       </c>
       <c r="L84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T84" s="1" t="b">
         <v>1</v>
@@ -23595,145 +23595,145 @@
         <v>1</v>
       </c>
       <c r="V84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ84" s="1" t="b">
         <v>1</v>
@@ -23742,28 +23742,28 @@
         <v>1</v>
       </c>
       <c r="BS84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA84" s="1" t="b">
         <v>0</v>
@@ -23834,7 +23834,7 @@
         <v>0</v>
       </c>
       <c r="K85" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85" s="1" t="b">
         <v>1</v>
@@ -24106,208 +24106,208 @@
         <v>0</v>
       </c>
       <c r="K86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA86" s="1" t="b">
         <v>0</v>
@@ -24378,208 +24378,208 @@
         <v>0</v>
       </c>
       <c r="K87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O87" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN87" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AO87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS87" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AT87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV87" s="1" t="b">
         <v>0</v>
       </c>
       <c r="BW87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA87" s="1" t="b">
         <v>0</v>
